--- a/DATABASE V.122222/Krenger_Quentin_dictionnaireDesDonnées_INFO1B_2018.xlsx
+++ b/DATABASE V.122222/Krenger_Quentin_dictionnaireDesDonnées_INFO1B_2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView minimized="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,6 +577,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,7 +587,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,6 +680,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -715,6 +732,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -891,36 +925,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F54" sqref="B2:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
@@ -937,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -948,7 +985,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
@@ -965,7 +1002,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -980,7 +1017,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -995,7 +1032,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1010,7 +1047,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1058,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
@@ -1038,7 +1075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1055,7 +1092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1072,7 +1109,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1120,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
@@ -1100,7 +1137,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1115,7 +1152,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1169,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1180,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>71</v>
       </c>
@@ -1160,7 +1197,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -1175,18 +1212,18 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1203,7 +1240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
@@ -1220,7 +1257,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
@@ -1237,7 +1274,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1285,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1302,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1317,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>40</v>
       </c>
@@ -1297,7 +1334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="11" t="s">
         <v>45</v>
       </c>
@@ -1308,7 +1345,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
@@ -1325,7 +1362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1377,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
         <v>41</v>
       </c>
@@ -1351,7 +1388,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
@@ -1368,7 +1405,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
@@ -1385,7 +1422,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>44</v>
       </c>
@@ -1402,7 +1439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
         <v>48</v>
       </c>
@@ -1413,7 +1450,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>49</v>
       </c>
@@ -1430,7 +1467,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>50</v>
       </c>
@@ -1445,7 +1482,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1495,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>52</v>
       </c>
@@ -1475,7 +1512,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>53</v>
       </c>
@@ -1492,7 +1529,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>54</v>
       </c>
@@ -1509,7 +1546,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="11" t="s">
         <v>55</v>
       </c>
@@ -1520,7 +1557,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>90</v>
       </c>
@@ -1537,7 +1574,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>56</v>
       </c>
@@ -1552,7 +1589,7 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
         <v>57</v>
       </c>
@@ -1563,7 +1600,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
         <v>58</v>
       </c>
@@ -1580,7 +1617,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>59</v>
       </c>
@@ -1595,7 +1632,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
         <v>60</v>
       </c>
@@ -1612,7 +1649,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="11" t="s">
         <v>61</v>
       </c>
@@ -1623,7 +1660,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
         <v>62</v>
       </c>
@@ -1640,7 +1677,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
         <v>63</v>
       </c>
@@ -1655,7 +1692,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="11" t="s">
         <v>64</v>
       </c>
@@ -1666,7 +1703,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="5" t="s">
         <v>65</v>
       </c>
@@ -1683,7 +1720,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
         <v>1</v>
       </c>
@@ -1703,6 +1740,6 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DATABASE V.122222/Krenger_Quentin_dictionnaireDesDonnées_INFO1B_2018.xlsx
+++ b/DATABASE V.122222/Krenger_Quentin_dictionnaireDesDonnées_INFO1B_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>t_article</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>Foreign Key liée à `id_marque`</t>
+  </si>
+  <si>
+    <t>(Adresse Mail)</t>
+  </si>
+  <si>
+    <t>(Numéro de téléphone)</t>
   </si>
 </sst>
 </file>
@@ -931,7 +937,7 @@
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="B2:F54"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,7 +1124,9 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
@@ -1283,7 +1291,9 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
